--- a/Literature_search/database 2016-2017.xlsx
+++ b/Literature_search/database 2016-2017.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="WoS" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Stage 3 (stats)" sheetId="9" r:id="rId8"/>
     <sheet name="Stage 4 (stats)" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +164,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="B8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -212,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0">
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -1698,12 +1698,15 @@
   </si>
   <si>
     <t>other :1</t>
+  </si>
+  <si>
+    <t>gray?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1897,31 +1900,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE4D6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE4D6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE4D6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2232,7 +2211,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3657,10 +3636,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A2:F24"/>
+  <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3671,9 +3650,10 @@
     <col min="4" max="4" width="37.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3689,8 +3669,11 @@
       <c r="E2" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>15</v>
       </c>
@@ -3710,7 +3693,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -3730,7 +3713,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>11</v>
       </c>
@@ -3750,7 +3733,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>19</v>
       </c>
@@ -3767,7 +3750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>13</v>
       </c>
@@ -3783,8 +3766,11 @@
       <c r="E7" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -3801,7 +3787,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -3818,7 +3804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>22</v>
       </c>
@@ -3835,7 +3821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>12</v>
       </c>
@@ -3851,8 +3837,11 @@
       <c r="E11" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>7</v>
       </c>
@@ -3869,7 +3858,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -3885,8 +3874,11 @@
       <c r="E13" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>18</v>
       </c>
@@ -3902,8 +3894,11 @@
       <c r="E14" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>17</v>
       </c>
@@ -3918,7 +3913,7 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -3932,8 +3927,11 @@
         <v>38</v>
       </c>
       <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2</v>
       </c>
@@ -3948,7 +3946,7 @@
       </c>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -3962,8 +3960,11 @@
         <v>38</v>
       </c>
       <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>8</v>
       </c>
@@ -3977,8 +3978,11 @@
         <v>38</v>
       </c>
       <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>5</v>
       </c>
@@ -3993,7 +3997,7 @@
       </c>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>10</v>
       </c>
@@ -4008,7 +4012,7 @@
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>1</v>
       </c>
@@ -4023,7 +4027,7 @@
       </c>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -4037,8 +4041,11 @@
         <v>38</v>
       </c>
       <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>20</v>
       </c>
@@ -4053,9 +4060,15 @@
       </c>
       <c r="E24" s="8"/>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="3">
+        <f>SUM(G3:G24)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A3:E24">
-    <sortCondition sortBy="cellColor" ref="B3:B24" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="B3:B24" dxfId="0"/>
     <sortCondition ref="E3:E24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4067,7 +4080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+    <sheetView topLeftCell="C8" workbookViewId="0">
       <selection activeCell="F8" sqref="F8:F13"/>
     </sheetView>
   </sheetViews>
@@ -4155,7 +4168,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>7</v>
       </c>
@@ -4293,7 +4306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>4</v>
       </c>
@@ -4314,7 +4327,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="16" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>8</v>
       </c>
